--- a/testeBoletos.xlsx
+++ b/testeBoletos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique\Documents\python automacao\scriptBoletos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T14\Documents\python\scriptBoletos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03742E65-E7EA-49D4-B7DB-475998B7C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C7553-D57F-47DE-84B4-9C36F779EFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FD7619D-0BE3-49C9-8A8E-AA3599DD4FD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6FD7619D-0BE3-49C9-8A8E-AA3599DD4FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,19 +435,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -472,13 +472,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -500,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
